--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.653400000000003</v>
+        <v>8.7041</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.981099999999999</v>
+        <v>4.830999999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.91889999999999</v>
+        <v>-13.74569999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.84409999999999</v>
+        <v>-14.666</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.451799999999996</v>
+        <v>6.794099999999997</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.4241</v>
+        <v>-12.16830000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.91290000000001</v>
+        <v>-12.66170000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.4465</v>
+        <v>-12.37810000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.609399999999997</v>
+        <v>5.634500000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.102400000000005</v>
+        <v>5.128600000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.553099999999995</v>
+        <v>7.186099999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.59310000000001</v>
+        <v>-11.61260000000002</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.902299999999995</v>
+        <v>8.728799999999993</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.16909999999999</v>
+        <v>-12.8817</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.71079999999999</v>
+        <v>-13.76729999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.04439999999999</v>
+        <v>-13.94889999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.7815</v>
+        <v>-11.79589999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.164400000000001</v>
+        <v>5.231199999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.061199999999997</v>
+        <v>4.870099999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.763600000000001</v>
+        <v>5.8104</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.34000000000001</v>
+        <v>-11.6921</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.2968</v>
+        <v>-11.5865</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.49230000000001</v>
+        <v>-11.45920000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.99269999999999</v>
+        <v>-13.14809999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.29030000000001</v>
+        <v>-11.3408</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.48640000000001</v>
+        <v>-12.5955</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.405999999999995</v>
+        <v>5.415099999999996</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
